--- a/Experiment Results/Sarcastic Results.xlsx
+++ b/Experiment Results/Sarcastic Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -272,6 +272,9 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Chinese</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">MSc</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -368,8 +371,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AN7" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:AN7"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AN8" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:AN8"/>
   <x:tableColumns count="40">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="开始时间" dataDxfId="3"/>
@@ -1601,11 +1604,129 @@
       </x:c>
       <x:c r="AN7" s="10" t="s"/>
     </x:row>
+    <x:row r="8" hidden="0">
+      <x:c r="A8">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="2">
+        <x:v>45056.8403125</x:v>
+      </x:c>
+      <x:c r="C8" s="2">
+        <x:v>45056.841412037</x:v>
+      </x:c>
+      <x:c r="D8" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E8" s="10" t="s"/>
+      <x:c r="F8" s="10" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G8" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H8" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I8" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J8" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="K8" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="L8" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="M8" s="10" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="N8" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O8" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P8" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Q8" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="R8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="S8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="T8" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="U8" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="V8" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="W8">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X8" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Y8" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="Z8" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AA8" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AB8" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AC8" s="7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="AD8" s="7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="AE8" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="AF8" s="7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="AG8" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AH8" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AI8" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AJ8" s="7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="AK8" s="7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="AL8" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AM8" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AN8" s="10" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R5b414ea9838d437b"/>
+    <x:tablePart r:id="R9c3f26ee06eb4223"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/Experiment Results/Sarcastic Results.xlsx
+++ b/Experiment Results/Sarcastic Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0783eeab76cf4181/MScRobotics/HRI (Human-Robot Interaction)/HRI_Coursework/Experiment Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84A06928-0DF9-406B-9430-9728ABEFC8A2}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3D2CE4-DA94-4D98-BD56-5E3600DF6513}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7524" yWindow="3360" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Please specify your education background:</t>
-  </si>
-  <si>
-    <t>What's your mother tongue?</t>
   </si>
   <si>
     <t>Do you have experience with robots?</t>
@@ -172,9 +169,6 @@
     <t>Robotics</t>
   </si>
   <si>
-    <t>Tamil</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t xml:space="preserve">Robotics </t>
   </si>
   <si>
-    <t>Telugu</t>
-  </si>
-  <si>
     <t>Shut it down.</t>
   </si>
   <si>
@@ -235,9 +226,6 @@
     <t>Master</t>
   </si>
   <si>
-    <t xml:space="preserve">Chinese </t>
-  </si>
-  <si>
     <t>Prefer not to say</t>
   </si>
   <si>
@@ -250,9 +238,6 @@
     <t xml:space="preserve">Student </t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arrogant </t>
   </si>
   <si>
@@ -262,16 +247,10 @@
     <t>Post graduate</t>
   </si>
   <si>
-    <t>Hindi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sarcastic </t>
   </si>
   <si>
     <t>Robotics MSc</t>
-  </si>
-  <si>
-    <t>Chinese</t>
   </si>
   <si>
     <t>MSc</t>
@@ -328,10 +307,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -467,23 +443,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AN8" totalsRowShown="0">
-  <autoFilter ref="A1:AN8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="开始时间" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完成时间" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="电子邮件" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="名称" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Welcome. This experiment is about how robot behavior affects human decision-making, we hope you could enjoy it!" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Have you read the information sheet?" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Have you signed the consent form?" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="There are several questions about yourself. All the information that you give will be kept confidential and anonymised." dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Please specify your gender: " dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Please specify your age:" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Please specify your occupation:" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Please specify your education background:" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="What's your mother tongue?" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AM8" totalsRowShown="0">
+  <autoFilter ref="A1:AM8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="39">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="开始时间" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完成时间" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="电子邮件" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="名称" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Welcome. This experiment is about how robot behavior affects human decision-making, we hope you could enjoy it!" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Have you read the information sheet?" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Have you signed the consent form?" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="There are several questions about yourself. All the information that you give will be kept confidential and anonymised." dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Please specify your gender: " dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Please specify your age:" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Please specify your occupation:" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Please specify your education background:" dataDxfId="26"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Do you have experience with robots?" dataDxfId="25"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Have you had bad experience with robots?" dataDxfId="24"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Once you completed the preparation, please tell staff that you are ready." dataDxfId="23"/>
@@ -812,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -823,7 +798,7 @@
     <col min="1" max="40" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,11 +916,8 @@
       <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -956,115 +928,112 @@
         <v>45051.4698726852</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>53</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2">
-        <v>10</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
+      <c r="X2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM2" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1075,115 +1044,112 @@
         <v>45051.4757523148</v>
       </c>
       <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
       <c r="K3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
         <v>62</v>
       </c>
-      <c r="N3" t="s">
+      <c r="X3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="AF3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM3" t="s">
         <v>64</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1194,115 +1160,112 @@
         <v>45051.486597222203</v>
       </c>
       <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
       <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
       <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM4" t="s">
         <v>68</v>
       </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1313,115 +1276,112 @@
         <v>45051.486689814803</v>
       </c>
       <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
       <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>50</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>51</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>52</v>
       </c>
-      <c r="T5" t="s">
-        <v>53</v>
-      </c>
       <c r="U5" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5">
+        <v>61</v>
+      </c>
+      <c r="V5">
         <v>0</v>
       </c>
-      <c r="X5" t="s">
-        <v>75</v>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1432,112 +1392,109 @@
         <v>45051.492349537002</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" t="s">
         <v>45</v>
       </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>50</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>51</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>52</v>
       </c>
-      <c r="T6" t="s">
-        <v>53</v>
-      </c>
       <c r="U6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6">
+        <v>61</v>
+      </c>
+      <c r="V6">
         <v>2</v>
       </c>
-      <c r="X6" t="s">
-        <v>79</v>
+      <c r="W6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1548,112 +1505,109 @@
         <v>45051.4975231481</v>
       </c>
       <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>50</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>51</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>52</v>
       </c>
-      <c r="T7" t="s">
-        <v>53</v>
-      </c>
       <c r="U7" t="s">
-        <v>54</v>
-      </c>
-      <c r="V7" t="s">
-        <v>64</v>
-      </c>
-      <c r="W7">
+        <v>61</v>
+      </c>
+      <c r="V7">
         <v>2</v>
       </c>
-      <c r="X7" t="s">
-        <v>65</v>
+      <c r="W7" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AL7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AM7" s="2" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1664,109 +1618,106 @@
         <v>45056.841412037</v>
       </c>
       <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" t="s">
         <v>45</v>
       </c>
-      <c r="L8" t="s">
-        <v>46</v>
-      </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>50</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>51</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>52</v>
       </c>
-      <c r="T8" t="s">
-        <v>53</v>
-      </c>
       <c r="U8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8" t="s">
         <v>54</v>
       </c>
-      <c r="V8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W8">
-        <v>4</v>
-      </c>
-      <c r="X8" t="s">
-        <v>56</v>
+      <c r="X8" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
